--- a/planilhas/Sistemas.xlsx
+++ b/planilhas/Sistemas.xlsx
@@ -1,38 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Documents\GitHub\sodmtz\planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE0E5E-9A1C-48EE-8F52-2741E1932890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>nome_sistema</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>SIA</t>
+  </si>
+  <si>
+    <t>SAVA</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>Ahhhhhhh</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>kfjlkjfçljkfkl</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>grgrger</t>
+  </si>
+  <si>
+    <t>Novo Sist</t>
+  </si>
+  <si>
+    <t>Nova tela</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,82 +99,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -326,142 +318,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>codigo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nome_sistema</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>trash</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SIA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SAVA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ahhhhhhh</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>kfjlkjfçljkfkl</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>grgrger</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Novo Sist</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nova tela</t>
-        </is>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/planilhas/Sistemas.xlsx
+++ b/planilhas/Sistemas.xlsx
@@ -1,87 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Documents\GitHub\sodmtz\planilhas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBE0E5E-9A1C-48EE-8F52-2741E1932890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>nome_sistema</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>SIA</t>
-  </si>
-  <si>
-    <t>SAVA</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>Ahhhhhhh</t>
-  </si>
-  <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>kfjlkjfçljkfkl</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>grgrger</t>
-  </si>
-  <si>
-    <t>Novo Sist</t>
-  </si>
-  <si>
-    <t>Nova tela</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,24 +51,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -318,115 +328,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col width="12.42578125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" ht="12.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>codigo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nome_sistema</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>trash</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ahhhhhhh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>oioioioioi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="3" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nova tela</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/planilhas/Sistemas.xlsx
+++ b/planilhas/Sistemas.xlsx
@@ -333,7 +333,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1048576"/>
@@ -393,45 +393,36 @@
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="3" t="n">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ahhhhhhh</t>
+          <t>Godzilla</t>
         </is>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="3" t="n">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" t="n">
         <v>7</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>oioioioioi</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nova tela</t>
-        </is>
-      </c>
-    </row>
+          <t>AOOOO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1"/>
     <row r="10" ht="12.75" customHeight="1"/>
     <row r="11" ht="12.75" customHeight="1"/>

--- a/planilhas/Sistemas.xlsx
+++ b/planilhas/Sistemas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
@@ -333,15 +333,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="12.42578125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -408,24 +408,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SOL</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AOOOO</t>
-        </is>
-      </c>
-    </row>
+          <t>Muto</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1"/>
     <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/planilhas/Sistemas.xlsx
+++ b/planilhas/Sistemas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Página1" sheetId="1" state="visible" r:id="rId1"/>
@@ -333,10 +333,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
@@ -363,7 +363,7 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="n">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -373,48 +373,16 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3" t="n">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAVA</t>
+          <t>SAWA</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GENERAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Godzilla</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Muto</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>

--- a/planilhas/Sistemas.xlsx
+++ b/planilhas/Sistemas.xlsx
@@ -333,13 +333,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col width="16.140625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="17.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
@@ -382,7 +382,16 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
